--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\PTCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-mexico\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598864A6-BFBF-481D-82A4-F19255B0532E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="405" windowWidth="24750" windowHeight="16080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="Submittal">[3]Lists!$A$2:$A$3</definedName>
     <definedName name="Zone">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,6 +54,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -713,7 +716,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -1482,14 +1485,20 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1509,6 +1518,9 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1525,15 +1537,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1554,19 +1557,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Body: normal cell" xfId="6"/>
+    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="10"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="11"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Parent row" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Parent row" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="12"/>
-    <cellStyle name="Table title" xfId="4"/>
+    <cellStyle name="Percent 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1973,28 +1976,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.265625" customWidth="1"/>
-    <col min="2" max="2" width="50.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.59765625" customWidth="1"/>
-    <col min="8" max="8" width="53.73046875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>124</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>125</v>
       </c>
@@ -2052,15 +2055,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2019</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>168</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>166</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>167</v>
       </c>
@@ -2126,10 +2129,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>2015</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -2195,17 +2198,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>49</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>207</v>
       </c>
@@ -2229,57 +2232,57 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="H29" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Summer, Winter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2" display="https://cdn.misoenergy.org/2020 Wind &amp; Solar Capacity Credit Report408144.pdf"/>
-    <hyperlink ref="H7" r:id="rId3" display="https://www.spp.org/documents/61025/elcc solar and wind accreditation.pdf"/>
-    <hyperlink ref="E21" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H21" r:id="rId7"/>
-    <hyperlink ref="H28" r:id="rId8"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" display="https://cdn.misoenergy.org/2020 Wind &amp; Solar Capacity Credit Report408144.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H7" r:id="rId3" display="https://www.spp.org/documents/61025/elcc solar and wind accreditation.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -2287,14 +2290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="32.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>176</v>
       </c>
@@ -2340,7 +2343,7 @@
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="149" t="s">
@@ -2386,7 +2389,7 @@
       <c r="AM2" s="149"/>
       <c r="AN2" s="149"/>
     </row>
-    <row r="3" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -2504,7 +2507,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="150" t="s">
         <v>67</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>250948</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="150"/>
       <c r="B5" s="24" t="s">
         <v>69</v>
@@ -2746,7 +2749,7 @@
         <v>274420</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="21.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A6" s="150"/>
       <c r="B6" s="24" t="s">
         <v>70</v>
@@ -2882,7 +2885,7 @@
         <v>2596540.2999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="150"/>
       <c r="B7" s="24" t="s">
         <v>71</v>
@@ -3002,7 +3005,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="150"/>
       <c r="B8" s="24" t="s">
         <v>73</v>
@@ -3122,7 +3125,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="150"/>
       <c r="B9" s="24" t="s">
         <v>74</v>
@@ -3242,7 +3245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="150"/>
       <c r="B10" s="24" t="s">
         <v>75</v>
@@ -3362,7 +3365,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="150"/>
       <c r="B11" s="24" t="s">
         <v>29</v>
@@ -3482,7 +3485,7 @@
         <v>763944.8</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="150"/>
       <c r="B12" s="24" t="s">
         <v>76</v>
@@ -3602,7 +3605,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="150"/>
       <c r="B13" s="24" t="s">
         <v>48</v>
@@ -3722,7 +3725,7 @@
         <v>841099</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="150"/>
       <c r="B14" s="24" t="s">
         <v>77</v>
@@ -3842,7 +3845,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="150"/>
       <c r="B15" s="24" t="s">
         <v>78</v>
@@ -3962,7 +3965,7 @@
         <v>720420</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="150"/>
       <c r="B16" s="24" t="s">
         <v>45</v>
@@ -4082,7 +4085,7 @@
         <v>271076.5</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>32</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>425775.29087786446</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="32.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>80</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>775800</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="32.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:40" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="111" t="s">
         <v>82</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>4323483.5908778645</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
         <v>90</v>
       </c>
@@ -4508,7 +4511,7 @@
       <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="118" t="s">
         <v>84</v>
       </c>
@@ -4552,7 +4555,7 @@
       <c r="AM21" s="30"/>
       <c r="AN21" s="30"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="118" t="s">
         <v>85</v>
       </c>
@@ -4596,7 +4599,7 @@
       <c r="AM22" s="30"/>
       <c r="AN22" s="30"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="118" t="s">
         <v>186</v>
       </c>
@@ -4640,7 +4643,7 @@
       <c r="AM23" s="30"/>
       <c r="AN23" s="30"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="151" t="s">
         <v>86</v>
       </c>
@@ -4684,7 +4687,7 @@
       <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="148" t="s">
         <v>187</v>
       </c>
@@ -4728,7 +4731,7 @@
       <c r="AM25" s="30"/>
       <c r="AN25" s="30"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="148" t="s">
         <v>87</v>
       </c>
@@ -4772,7 +4775,7 @@
       <c r="AM26" s="30"/>
       <c r="AN26" s="30"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="121" t="s">
         <v>188</v>
       </c>
@@ -4816,7 +4819,7 @@
       <c r="AM27" s="30"/>
       <c r="AN27" s="30"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="118" t="s">
         <v>88</v>
       </c>
@@ -4835,19 +4838,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
@@ -4855,7 +4858,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>December</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
@@ -4973,7 +4976,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -5062,7 +5065,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>823890</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5178,7 +5181,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>823890</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>174</v>
       </c>
@@ -5604,7 +5607,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -5613,7 +5616,7 @@
       </c>
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -5623,7 +5626,7 @@
       </c>
       <c r="C57" s="15"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -5650,7 +5653,7 @@
       </c>
       <c r="C60" s="15"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -5660,7 +5663,7 @@
       </c>
       <c r="C61" s="15"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -5675,23 +5678,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
         <v>213</v>
       </c>
@@ -5702,46 +5705,46 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A2,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A2,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C2" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A2,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A2,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A3,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A3,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C3" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A3,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A3,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A4,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A4,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C4" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A4,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A4,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5767,7 +5770,7 @@
         <v>0.25874935834251522</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>4.356377883202317E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5806,59 +5809,59 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C10" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A11,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A11,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C11" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A11,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A11,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A12,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A12,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C12" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A12,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A12,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A13,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A13,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C13" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A13,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A13,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -5871,43 +5874,43 @@
         <v>0.61951796127279213</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C15" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A16,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A16,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C16" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A16,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A16,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
       <c r="C17" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.95)</f>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -5916,337 +5919,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:R111"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="55"/>
-    <col min="3" max="3" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="258" width="9.1328125" style="55"/>
-    <col min="259" max="259" width="13.1328125" style="55" customWidth="1"/>
-    <col min="260" max="260" width="12.3984375" style="55" customWidth="1"/>
-    <col min="261" max="261" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="263" max="514" width="9.1328125" style="55"/>
-    <col min="515" max="515" width="13.1328125" style="55" customWidth="1"/>
-    <col min="516" max="516" width="12.3984375" style="55" customWidth="1"/>
-    <col min="517" max="517" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="519" max="770" width="9.1328125" style="55"/>
-    <col min="771" max="771" width="13.1328125" style="55" customWidth="1"/>
-    <col min="772" max="772" width="12.3984375" style="55" customWidth="1"/>
-    <col min="773" max="773" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="775" max="1026" width="9.1328125" style="55"/>
-    <col min="1027" max="1027" width="13.1328125" style="55" customWidth="1"/>
-    <col min="1028" max="1028" width="12.3984375" style="55" customWidth="1"/>
-    <col min="1029" max="1029" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1282" width="9.1328125" style="55"/>
-    <col min="1283" max="1283" width="13.1328125" style="55" customWidth="1"/>
-    <col min="1284" max="1284" width="12.3984375" style="55" customWidth="1"/>
-    <col min="1285" max="1285" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1538" width="9.1328125" style="55"/>
-    <col min="1539" max="1539" width="13.1328125" style="55" customWidth="1"/>
-    <col min="1540" max="1540" width="12.3984375" style="55" customWidth="1"/>
-    <col min="1541" max="1541" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1794" width="9.1328125" style="55"/>
-    <col min="1795" max="1795" width="13.1328125" style="55" customWidth="1"/>
-    <col min="1796" max="1796" width="12.3984375" style="55" customWidth="1"/>
-    <col min="1797" max="1797" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1799" max="2050" width="9.1328125" style="55"/>
-    <col min="2051" max="2051" width="13.1328125" style="55" customWidth="1"/>
-    <col min="2052" max="2052" width="12.3984375" style="55" customWidth="1"/>
-    <col min="2053" max="2053" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2306" width="9.1328125" style="55"/>
-    <col min="2307" max="2307" width="13.1328125" style="55" customWidth="1"/>
-    <col min="2308" max="2308" width="12.3984375" style="55" customWidth="1"/>
-    <col min="2309" max="2309" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2562" width="9.1328125" style="55"/>
-    <col min="2563" max="2563" width="13.1328125" style="55" customWidth="1"/>
-    <col min="2564" max="2564" width="12.3984375" style="55" customWidth="1"/>
-    <col min="2565" max="2565" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2818" width="9.1328125" style="55"/>
-    <col min="2819" max="2819" width="13.1328125" style="55" customWidth="1"/>
-    <col min="2820" max="2820" width="12.3984375" style="55" customWidth="1"/>
-    <col min="2821" max="2821" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2823" max="3074" width="9.1328125" style="55"/>
-    <col min="3075" max="3075" width="13.1328125" style="55" customWidth="1"/>
-    <col min="3076" max="3076" width="12.3984375" style="55" customWidth="1"/>
-    <col min="3077" max="3077" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3330" width="9.1328125" style="55"/>
-    <col min="3331" max="3331" width="13.1328125" style="55" customWidth="1"/>
-    <col min="3332" max="3332" width="12.3984375" style="55" customWidth="1"/>
-    <col min="3333" max="3333" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3586" width="9.1328125" style="55"/>
-    <col min="3587" max="3587" width="13.1328125" style="55" customWidth="1"/>
-    <col min="3588" max="3588" width="12.3984375" style="55" customWidth="1"/>
-    <col min="3589" max="3589" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3842" width="9.1328125" style="55"/>
-    <col min="3843" max="3843" width="13.1328125" style="55" customWidth="1"/>
-    <col min="3844" max="3844" width="12.3984375" style="55" customWidth="1"/>
-    <col min="3845" max="3845" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3847" max="4098" width="9.1328125" style="55"/>
-    <col min="4099" max="4099" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4100" max="4100" width="12.3984375" style="55" customWidth="1"/>
-    <col min="4101" max="4101" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4354" width="9.1328125" style="55"/>
-    <col min="4355" max="4355" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4356" max="4356" width="12.3984375" style="55" customWidth="1"/>
-    <col min="4357" max="4357" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4610" width="9.1328125" style="55"/>
-    <col min="4611" max="4611" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4612" max="4612" width="12.3984375" style="55" customWidth="1"/>
-    <col min="4613" max="4613" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4866" width="9.1328125" style="55"/>
-    <col min="4867" max="4867" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4868" max="4868" width="12.3984375" style="55" customWidth="1"/>
-    <col min="4869" max="4869" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4871" max="5122" width="9.1328125" style="55"/>
-    <col min="5123" max="5123" width="13.1328125" style="55" customWidth="1"/>
-    <col min="5124" max="5124" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5125" max="5125" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5378" width="9.1328125" style="55"/>
-    <col min="5379" max="5379" width="13.1328125" style="55" customWidth="1"/>
-    <col min="5380" max="5380" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5381" max="5381" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5634" width="9.1328125" style="55"/>
-    <col min="5635" max="5635" width="13.1328125" style="55" customWidth="1"/>
-    <col min="5636" max="5636" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5637" max="5637" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5890" width="9.1328125" style="55"/>
-    <col min="5891" max="5891" width="13.1328125" style="55" customWidth="1"/>
-    <col min="5892" max="5892" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5893" max="5893" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5895" max="6146" width="9.1328125" style="55"/>
-    <col min="6147" max="6147" width="13.1328125" style="55" customWidth="1"/>
-    <col min="6148" max="6148" width="12.3984375" style="55" customWidth="1"/>
-    <col min="6149" max="6149" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6402" width="9.1328125" style="55"/>
-    <col min="6403" max="6403" width="13.1328125" style="55" customWidth="1"/>
-    <col min="6404" max="6404" width="12.3984375" style="55" customWidth="1"/>
-    <col min="6405" max="6405" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6658" width="9.1328125" style="55"/>
-    <col min="6659" max="6659" width="13.1328125" style="55" customWidth="1"/>
-    <col min="6660" max="6660" width="12.3984375" style="55" customWidth="1"/>
-    <col min="6661" max="6661" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6914" width="9.1328125" style="55"/>
-    <col min="6915" max="6915" width="13.1328125" style="55" customWidth="1"/>
-    <col min="6916" max="6916" width="12.3984375" style="55" customWidth="1"/>
-    <col min="6917" max="6917" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6919" max="7170" width="9.1328125" style="55"/>
-    <col min="7171" max="7171" width="13.1328125" style="55" customWidth="1"/>
-    <col min="7172" max="7172" width="12.3984375" style="55" customWidth="1"/>
-    <col min="7173" max="7173" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7426" width="9.1328125" style="55"/>
-    <col min="7427" max="7427" width="13.1328125" style="55" customWidth="1"/>
-    <col min="7428" max="7428" width="12.3984375" style="55" customWidth="1"/>
-    <col min="7429" max="7429" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7682" width="9.1328125" style="55"/>
-    <col min="7683" max="7683" width="13.1328125" style="55" customWidth="1"/>
-    <col min="7684" max="7684" width="12.3984375" style="55" customWidth="1"/>
-    <col min="7685" max="7685" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7938" width="9.1328125" style="55"/>
-    <col min="7939" max="7939" width="13.1328125" style="55" customWidth="1"/>
-    <col min="7940" max="7940" width="12.3984375" style="55" customWidth="1"/>
-    <col min="7941" max="7941" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7943" max="8194" width="9.1328125" style="55"/>
-    <col min="8195" max="8195" width="13.1328125" style="55" customWidth="1"/>
-    <col min="8196" max="8196" width="12.3984375" style="55" customWidth="1"/>
-    <col min="8197" max="8197" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8450" width="9.1328125" style="55"/>
-    <col min="8451" max="8451" width="13.1328125" style="55" customWidth="1"/>
-    <col min="8452" max="8452" width="12.3984375" style="55" customWidth="1"/>
-    <col min="8453" max="8453" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8706" width="9.1328125" style="55"/>
-    <col min="8707" max="8707" width="13.1328125" style="55" customWidth="1"/>
-    <col min="8708" max="8708" width="12.3984375" style="55" customWidth="1"/>
-    <col min="8709" max="8709" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8962" width="9.1328125" style="55"/>
-    <col min="8963" max="8963" width="13.1328125" style="55" customWidth="1"/>
-    <col min="8964" max="8964" width="12.3984375" style="55" customWidth="1"/>
-    <col min="8965" max="8965" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8967" max="9218" width="9.1328125" style="55"/>
-    <col min="9219" max="9219" width="13.1328125" style="55" customWidth="1"/>
-    <col min="9220" max="9220" width="12.3984375" style="55" customWidth="1"/>
-    <col min="9221" max="9221" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9474" width="9.1328125" style="55"/>
-    <col min="9475" max="9475" width="13.1328125" style="55" customWidth="1"/>
-    <col min="9476" max="9476" width="12.3984375" style="55" customWidth="1"/>
-    <col min="9477" max="9477" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9730" width="9.1328125" style="55"/>
-    <col min="9731" max="9731" width="13.1328125" style="55" customWidth="1"/>
-    <col min="9732" max="9732" width="12.3984375" style="55" customWidth="1"/>
-    <col min="9733" max="9733" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9986" width="9.1328125" style="55"/>
-    <col min="9987" max="9987" width="13.1328125" style="55" customWidth="1"/>
-    <col min="9988" max="9988" width="12.3984375" style="55" customWidth="1"/>
-    <col min="9989" max="9989" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9991" max="10242" width="9.1328125" style="55"/>
-    <col min="10243" max="10243" width="13.1328125" style="55" customWidth="1"/>
-    <col min="10244" max="10244" width="12.3984375" style="55" customWidth="1"/>
-    <col min="10245" max="10245" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10498" width="9.1328125" style="55"/>
-    <col min="10499" max="10499" width="13.1328125" style="55" customWidth="1"/>
-    <col min="10500" max="10500" width="12.3984375" style="55" customWidth="1"/>
-    <col min="10501" max="10501" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10754" width="9.1328125" style="55"/>
-    <col min="10755" max="10755" width="13.1328125" style="55" customWidth="1"/>
-    <col min="10756" max="10756" width="12.3984375" style="55" customWidth="1"/>
-    <col min="10757" max="10757" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10759" max="11010" width="9.1328125" style="55"/>
-    <col min="11011" max="11011" width="13.1328125" style="55" customWidth="1"/>
-    <col min="11012" max="11012" width="12.3984375" style="55" customWidth="1"/>
-    <col min="11013" max="11013" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11266" width="9.1328125" style="55"/>
-    <col min="11267" max="11267" width="13.1328125" style="55" customWidth="1"/>
-    <col min="11268" max="11268" width="12.3984375" style="55" customWidth="1"/>
-    <col min="11269" max="11269" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11522" width="9.1328125" style="55"/>
-    <col min="11523" max="11523" width="13.1328125" style="55" customWidth="1"/>
-    <col min="11524" max="11524" width="12.3984375" style="55" customWidth="1"/>
-    <col min="11525" max="11525" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11778" width="9.1328125" style="55"/>
-    <col min="11779" max="11779" width="13.1328125" style="55" customWidth="1"/>
-    <col min="11780" max="11780" width="12.3984375" style="55" customWidth="1"/>
-    <col min="11781" max="11781" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11783" max="12034" width="9.1328125" style="55"/>
-    <col min="12035" max="12035" width="13.1328125" style="55" customWidth="1"/>
-    <col min="12036" max="12036" width="12.3984375" style="55" customWidth="1"/>
-    <col min="12037" max="12037" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12290" width="9.1328125" style="55"/>
-    <col min="12291" max="12291" width="13.1328125" style="55" customWidth="1"/>
-    <col min="12292" max="12292" width="12.3984375" style="55" customWidth="1"/>
-    <col min="12293" max="12293" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12546" width="9.1328125" style="55"/>
-    <col min="12547" max="12547" width="13.1328125" style="55" customWidth="1"/>
-    <col min="12548" max="12548" width="12.3984375" style="55" customWidth="1"/>
-    <col min="12549" max="12549" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12802" width="9.1328125" style="55"/>
-    <col min="12803" max="12803" width="13.1328125" style="55" customWidth="1"/>
-    <col min="12804" max="12804" width="12.3984375" style="55" customWidth="1"/>
-    <col min="12805" max="12805" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12807" max="13058" width="9.1328125" style="55"/>
-    <col min="13059" max="13059" width="13.1328125" style="55" customWidth="1"/>
-    <col min="13060" max="13060" width="12.3984375" style="55" customWidth="1"/>
-    <col min="13061" max="13061" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13314" width="9.1328125" style="55"/>
-    <col min="13315" max="13315" width="13.1328125" style="55" customWidth="1"/>
-    <col min="13316" max="13316" width="12.3984375" style="55" customWidth="1"/>
-    <col min="13317" max="13317" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13570" width="9.1328125" style="55"/>
-    <col min="13571" max="13571" width="13.1328125" style="55" customWidth="1"/>
-    <col min="13572" max="13572" width="12.3984375" style="55" customWidth="1"/>
-    <col min="13573" max="13573" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13826" width="9.1328125" style="55"/>
-    <col min="13827" max="13827" width="13.1328125" style="55" customWidth="1"/>
-    <col min="13828" max="13828" width="12.3984375" style="55" customWidth="1"/>
-    <col min="13829" max="13829" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13831" max="14082" width="9.1328125" style="55"/>
-    <col min="14083" max="14083" width="13.1328125" style="55" customWidth="1"/>
-    <col min="14084" max="14084" width="12.3984375" style="55" customWidth="1"/>
-    <col min="14085" max="14085" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14338" width="9.1328125" style="55"/>
-    <col min="14339" max="14339" width="13.1328125" style="55" customWidth="1"/>
-    <col min="14340" max="14340" width="12.3984375" style="55" customWidth="1"/>
-    <col min="14341" max="14341" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14594" width="9.1328125" style="55"/>
-    <col min="14595" max="14595" width="13.1328125" style="55" customWidth="1"/>
-    <col min="14596" max="14596" width="12.3984375" style="55" customWidth="1"/>
-    <col min="14597" max="14597" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14850" width="9.1328125" style="55"/>
-    <col min="14851" max="14851" width="13.1328125" style="55" customWidth="1"/>
-    <col min="14852" max="14852" width="12.3984375" style="55" customWidth="1"/>
-    <col min="14853" max="14853" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14855" max="15106" width="9.1328125" style="55"/>
-    <col min="15107" max="15107" width="13.1328125" style="55" customWidth="1"/>
-    <col min="15108" max="15108" width="12.3984375" style="55" customWidth="1"/>
-    <col min="15109" max="15109" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15362" width="9.1328125" style="55"/>
-    <col min="15363" max="15363" width="13.1328125" style="55" customWidth="1"/>
-    <col min="15364" max="15364" width="12.3984375" style="55" customWidth="1"/>
-    <col min="15365" max="15365" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15618" width="9.1328125" style="55"/>
-    <col min="15619" max="15619" width="13.1328125" style="55" customWidth="1"/>
-    <col min="15620" max="15620" width="12.3984375" style="55" customWidth="1"/>
-    <col min="15621" max="15621" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15874" width="9.1328125" style="55"/>
-    <col min="15875" max="15875" width="13.1328125" style="55" customWidth="1"/>
-    <col min="15876" max="15876" width="12.3984375" style="55" customWidth="1"/>
-    <col min="15877" max="15877" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15879" max="16130" width="9.1328125" style="55"/>
-    <col min="16131" max="16131" width="13.1328125" style="55" customWidth="1"/>
-    <col min="16132" max="16132" width="12.3984375" style="55" customWidth="1"/>
-    <col min="16133" max="16133" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16384" width="9.1328125" style="55"/>
+    <col min="1" max="2" width="9.140625" style="55"/>
+    <col min="3" max="3" width="13.140625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="258" width="9.140625" style="55"/>
+    <col min="259" max="259" width="13.140625" style="55" customWidth="1"/>
+    <col min="260" max="260" width="12.42578125" style="55" customWidth="1"/>
+    <col min="261" max="261" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="263" max="514" width="9.140625" style="55"/>
+    <col min="515" max="515" width="13.140625" style="55" customWidth="1"/>
+    <col min="516" max="516" width="12.42578125" style="55" customWidth="1"/>
+    <col min="517" max="517" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="519" max="770" width="9.140625" style="55"/>
+    <col min="771" max="771" width="13.140625" style="55" customWidth="1"/>
+    <col min="772" max="772" width="12.42578125" style="55" customWidth="1"/>
+    <col min="773" max="773" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="775" max="1026" width="9.140625" style="55"/>
+    <col min="1027" max="1027" width="13.140625" style="55" customWidth="1"/>
+    <col min="1028" max="1028" width="12.42578125" style="55" customWidth="1"/>
+    <col min="1029" max="1029" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1282" width="9.140625" style="55"/>
+    <col min="1283" max="1283" width="13.140625" style="55" customWidth="1"/>
+    <col min="1284" max="1284" width="12.42578125" style="55" customWidth="1"/>
+    <col min="1285" max="1285" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1538" width="9.140625" style="55"/>
+    <col min="1539" max="1539" width="13.140625" style="55" customWidth="1"/>
+    <col min="1540" max="1540" width="12.42578125" style="55" customWidth="1"/>
+    <col min="1541" max="1541" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1794" width="9.140625" style="55"/>
+    <col min="1795" max="1795" width="13.140625" style="55" customWidth="1"/>
+    <col min="1796" max="1796" width="12.42578125" style="55" customWidth="1"/>
+    <col min="1797" max="1797" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1799" max="2050" width="9.140625" style="55"/>
+    <col min="2051" max="2051" width="13.140625" style="55" customWidth="1"/>
+    <col min="2052" max="2052" width="12.42578125" style="55" customWidth="1"/>
+    <col min="2053" max="2053" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2306" width="9.140625" style="55"/>
+    <col min="2307" max="2307" width="13.140625" style="55" customWidth="1"/>
+    <col min="2308" max="2308" width="12.42578125" style="55" customWidth="1"/>
+    <col min="2309" max="2309" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2562" width="9.140625" style="55"/>
+    <col min="2563" max="2563" width="13.140625" style="55" customWidth="1"/>
+    <col min="2564" max="2564" width="12.42578125" style="55" customWidth="1"/>
+    <col min="2565" max="2565" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2818" width="9.140625" style="55"/>
+    <col min="2819" max="2819" width="13.140625" style="55" customWidth="1"/>
+    <col min="2820" max="2820" width="12.42578125" style="55" customWidth="1"/>
+    <col min="2821" max="2821" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2823" max="3074" width="9.140625" style="55"/>
+    <col min="3075" max="3075" width="13.140625" style="55" customWidth="1"/>
+    <col min="3076" max="3076" width="12.42578125" style="55" customWidth="1"/>
+    <col min="3077" max="3077" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3330" width="9.140625" style="55"/>
+    <col min="3331" max="3331" width="13.140625" style="55" customWidth="1"/>
+    <col min="3332" max="3332" width="12.42578125" style="55" customWidth="1"/>
+    <col min="3333" max="3333" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3586" width="9.140625" style="55"/>
+    <col min="3587" max="3587" width="13.140625" style="55" customWidth="1"/>
+    <col min="3588" max="3588" width="12.42578125" style="55" customWidth="1"/>
+    <col min="3589" max="3589" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3842" width="9.140625" style="55"/>
+    <col min="3843" max="3843" width="13.140625" style="55" customWidth="1"/>
+    <col min="3844" max="3844" width="12.42578125" style="55" customWidth="1"/>
+    <col min="3845" max="3845" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3847" max="4098" width="9.140625" style="55"/>
+    <col min="4099" max="4099" width="13.140625" style="55" customWidth="1"/>
+    <col min="4100" max="4100" width="12.42578125" style="55" customWidth="1"/>
+    <col min="4101" max="4101" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4354" width="9.140625" style="55"/>
+    <col min="4355" max="4355" width="13.140625" style="55" customWidth="1"/>
+    <col min="4356" max="4356" width="12.42578125" style="55" customWidth="1"/>
+    <col min="4357" max="4357" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4610" width="9.140625" style="55"/>
+    <col min="4611" max="4611" width="13.140625" style="55" customWidth="1"/>
+    <col min="4612" max="4612" width="12.42578125" style="55" customWidth="1"/>
+    <col min="4613" max="4613" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4866" width="9.140625" style="55"/>
+    <col min="4867" max="4867" width="13.140625" style="55" customWidth="1"/>
+    <col min="4868" max="4868" width="12.42578125" style="55" customWidth="1"/>
+    <col min="4869" max="4869" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4871" max="5122" width="9.140625" style="55"/>
+    <col min="5123" max="5123" width="13.140625" style="55" customWidth="1"/>
+    <col min="5124" max="5124" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5125" max="5125" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5378" width="9.140625" style="55"/>
+    <col min="5379" max="5379" width="13.140625" style="55" customWidth="1"/>
+    <col min="5380" max="5380" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5381" max="5381" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5634" width="9.140625" style="55"/>
+    <col min="5635" max="5635" width="13.140625" style="55" customWidth="1"/>
+    <col min="5636" max="5636" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5637" max="5637" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5890" width="9.140625" style="55"/>
+    <col min="5891" max="5891" width="13.140625" style="55" customWidth="1"/>
+    <col min="5892" max="5892" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5893" max="5893" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5895" max="6146" width="9.140625" style="55"/>
+    <col min="6147" max="6147" width="13.140625" style="55" customWidth="1"/>
+    <col min="6148" max="6148" width="12.42578125" style="55" customWidth="1"/>
+    <col min="6149" max="6149" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6402" width="9.140625" style="55"/>
+    <col min="6403" max="6403" width="13.140625" style="55" customWidth="1"/>
+    <col min="6404" max="6404" width="12.42578125" style="55" customWidth="1"/>
+    <col min="6405" max="6405" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6658" width="9.140625" style="55"/>
+    <col min="6659" max="6659" width="13.140625" style="55" customWidth="1"/>
+    <col min="6660" max="6660" width="12.42578125" style="55" customWidth="1"/>
+    <col min="6661" max="6661" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6914" width="9.140625" style="55"/>
+    <col min="6915" max="6915" width="13.140625" style="55" customWidth="1"/>
+    <col min="6916" max="6916" width="12.42578125" style="55" customWidth="1"/>
+    <col min="6917" max="6917" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6919" max="7170" width="9.140625" style="55"/>
+    <col min="7171" max="7171" width="13.140625" style="55" customWidth="1"/>
+    <col min="7172" max="7172" width="12.42578125" style="55" customWidth="1"/>
+    <col min="7173" max="7173" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7426" width="9.140625" style="55"/>
+    <col min="7427" max="7427" width="13.140625" style="55" customWidth="1"/>
+    <col min="7428" max="7428" width="12.42578125" style="55" customWidth="1"/>
+    <col min="7429" max="7429" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7682" width="9.140625" style="55"/>
+    <col min="7683" max="7683" width="13.140625" style="55" customWidth="1"/>
+    <col min="7684" max="7684" width="12.42578125" style="55" customWidth="1"/>
+    <col min="7685" max="7685" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7938" width="9.140625" style="55"/>
+    <col min="7939" max="7939" width="13.140625" style="55" customWidth="1"/>
+    <col min="7940" max="7940" width="12.42578125" style="55" customWidth="1"/>
+    <col min="7941" max="7941" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7943" max="8194" width="9.140625" style="55"/>
+    <col min="8195" max="8195" width="13.140625" style="55" customWidth="1"/>
+    <col min="8196" max="8196" width="12.42578125" style="55" customWidth="1"/>
+    <col min="8197" max="8197" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8450" width="9.140625" style="55"/>
+    <col min="8451" max="8451" width="13.140625" style="55" customWidth="1"/>
+    <col min="8452" max="8452" width="12.42578125" style="55" customWidth="1"/>
+    <col min="8453" max="8453" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8706" width="9.140625" style="55"/>
+    <col min="8707" max="8707" width="13.140625" style="55" customWidth="1"/>
+    <col min="8708" max="8708" width="12.42578125" style="55" customWidth="1"/>
+    <col min="8709" max="8709" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8962" width="9.140625" style="55"/>
+    <col min="8963" max="8963" width="13.140625" style="55" customWidth="1"/>
+    <col min="8964" max="8964" width="12.42578125" style="55" customWidth="1"/>
+    <col min="8965" max="8965" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8967" max="9218" width="9.140625" style="55"/>
+    <col min="9219" max="9219" width="13.140625" style="55" customWidth="1"/>
+    <col min="9220" max="9220" width="12.42578125" style="55" customWidth="1"/>
+    <col min="9221" max="9221" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9474" width="9.140625" style="55"/>
+    <col min="9475" max="9475" width="13.140625" style="55" customWidth="1"/>
+    <col min="9476" max="9476" width="12.42578125" style="55" customWidth="1"/>
+    <col min="9477" max="9477" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9730" width="9.140625" style="55"/>
+    <col min="9731" max="9731" width="13.140625" style="55" customWidth="1"/>
+    <col min="9732" max="9732" width="12.42578125" style="55" customWidth="1"/>
+    <col min="9733" max="9733" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9986" width="9.140625" style="55"/>
+    <col min="9987" max="9987" width="13.140625" style="55" customWidth="1"/>
+    <col min="9988" max="9988" width="12.42578125" style="55" customWidth="1"/>
+    <col min="9989" max="9989" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9991" max="10242" width="9.140625" style="55"/>
+    <col min="10243" max="10243" width="13.140625" style="55" customWidth="1"/>
+    <col min="10244" max="10244" width="12.42578125" style="55" customWidth="1"/>
+    <col min="10245" max="10245" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10498" width="9.140625" style="55"/>
+    <col min="10499" max="10499" width="13.140625" style="55" customWidth="1"/>
+    <col min="10500" max="10500" width="12.42578125" style="55" customWidth="1"/>
+    <col min="10501" max="10501" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10754" width="9.140625" style="55"/>
+    <col min="10755" max="10755" width="13.140625" style="55" customWidth="1"/>
+    <col min="10756" max="10756" width="12.42578125" style="55" customWidth="1"/>
+    <col min="10757" max="10757" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10759" max="11010" width="9.140625" style="55"/>
+    <col min="11011" max="11011" width="13.140625" style="55" customWidth="1"/>
+    <col min="11012" max="11012" width="12.42578125" style="55" customWidth="1"/>
+    <col min="11013" max="11013" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11266" width="9.140625" style="55"/>
+    <col min="11267" max="11267" width="13.140625" style="55" customWidth="1"/>
+    <col min="11268" max="11268" width="12.42578125" style="55" customWidth="1"/>
+    <col min="11269" max="11269" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11522" width="9.140625" style="55"/>
+    <col min="11523" max="11523" width="13.140625" style="55" customWidth="1"/>
+    <col min="11524" max="11524" width="12.42578125" style="55" customWidth="1"/>
+    <col min="11525" max="11525" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11778" width="9.140625" style="55"/>
+    <col min="11779" max="11779" width="13.140625" style="55" customWidth="1"/>
+    <col min="11780" max="11780" width="12.42578125" style="55" customWidth="1"/>
+    <col min="11781" max="11781" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11783" max="12034" width="9.140625" style="55"/>
+    <col min="12035" max="12035" width="13.140625" style="55" customWidth="1"/>
+    <col min="12036" max="12036" width="12.42578125" style="55" customWidth="1"/>
+    <col min="12037" max="12037" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12290" width="9.140625" style="55"/>
+    <col min="12291" max="12291" width="13.140625" style="55" customWidth="1"/>
+    <col min="12292" max="12292" width="12.42578125" style="55" customWidth="1"/>
+    <col min="12293" max="12293" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12546" width="9.140625" style="55"/>
+    <col min="12547" max="12547" width="13.140625" style="55" customWidth="1"/>
+    <col min="12548" max="12548" width="12.42578125" style="55" customWidth="1"/>
+    <col min="12549" max="12549" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12802" width="9.140625" style="55"/>
+    <col min="12803" max="12803" width="13.140625" style="55" customWidth="1"/>
+    <col min="12804" max="12804" width="12.42578125" style="55" customWidth="1"/>
+    <col min="12805" max="12805" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12807" max="13058" width="9.140625" style="55"/>
+    <col min="13059" max="13059" width="13.140625" style="55" customWidth="1"/>
+    <col min="13060" max="13060" width="12.42578125" style="55" customWidth="1"/>
+    <col min="13061" max="13061" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13314" width="9.140625" style="55"/>
+    <col min="13315" max="13315" width="13.140625" style="55" customWidth="1"/>
+    <col min="13316" max="13316" width="12.42578125" style="55" customWidth="1"/>
+    <col min="13317" max="13317" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13570" width="9.140625" style="55"/>
+    <col min="13571" max="13571" width="13.140625" style="55" customWidth="1"/>
+    <col min="13572" max="13572" width="12.42578125" style="55" customWidth="1"/>
+    <col min="13573" max="13573" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13826" width="9.140625" style="55"/>
+    <col min="13827" max="13827" width="13.140625" style="55" customWidth="1"/>
+    <col min="13828" max="13828" width="12.42578125" style="55" customWidth="1"/>
+    <col min="13829" max="13829" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13831" max="14082" width="9.140625" style="55"/>
+    <col min="14083" max="14083" width="13.140625" style="55" customWidth="1"/>
+    <col min="14084" max="14084" width="12.42578125" style="55" customWidth="1"/>
+    <col min="14085" max="14085" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14338" width="9.140625" style="55"/>
+    <col min="14339" max="14339" width="13.140625" style="55" customWidth="1"/>
+    <col min="14340" max="14340" width="12.42578125" style="55" customWidth="1"/>
+    <col min="14341" max="14341" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14594" width="9.140625" style="55"/>
+    <col min="14595" max="14595" width="13.140625" style="55" customWidth="1"/>
+    <col min="14596" max="14596" width="12.42578125" style="55" customWidth="1"/>
+    <col min="14597" max="14597" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14850" width="9.140625" style="55"/>
+    <col min="14851" max="14851" width="13.140625" style="55" customWidth="1"/>
+    <col min="14852" max="14852" width="12.42578125" style="55" customWidth="1"/>
+    <col min="14853" max="14853" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14855" max="15106" width="9.140625" style="55"/>
+    <col min="15107" max="15107" width="13.140625" style="55" customWidth="1"/>
+    <col min="15108" max="15108" width="12.42578125" style="55" customWidth="1"/>
+    <col min="15109" max="15109" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15362" width="9.140625" style="55"/>
+    <col min="15363" max="15363" width="13.140625" style="55" customWidth="1"/>
+    <col min="15364" max="15364" width="12.42578125" style="55" customWidth="1"/>
+    <col min="15365" max="15365" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15618" width="9.140625" style="55"/>
+    <col min="15619" max="15619" width="13.140625" style="55" customWidth="1"/>
+    <col min="15620" max="15620" width="12.42578125" style="55" customWidth="1"/>
+    <col min="15621" max="15621" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15874" width="9.140625" style="55"/>
+    <col min="15875" max="15875" width="13.140625" style="55" customWidth="1"/>
+    <col min="15876" max="15876" width="12.42578125" style="55" customWidth="1"/>
+    <col min="15877" max="15877" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15879" max="16130" width="9.140625" style="55"/>
+    <col min="16131" max="16131" width="13.140625" style="55" customWidth="1"/>
+    <col min="16132" max="16132" width="12.42578125" style="55" customWidth="1"/>
+    <col min="16133" max="16133" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>111</v>
       </c>
@@ -6254,7 +6257,7 @@
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
     </row>
-    <row r="4" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
@@ -6262,7 +6265,7 @@
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
     </row>
-    <row r="5" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>112</v>
       </c>
@@ -6270,17 +6273,17 @@
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
     </row>
-    <row r="8" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="58" t="s">
         <v>113</v>
       </c>
@@ -6289,18 +6292,18 @@
       <c r="E8" s="59"/>
       <c r="F8" s="60"/>
     </row>
-    <row r="9" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="129"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="62"/>
       <c r="F9" s="63"/>
     </row>
-    <row r="10" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="64">
         <v>1</v>
       </c>
@@ -6311,7 +6314,7 @@
       <c r="E10" s="65"/>
       <c r="F10" s="63"/>
     </row>
-    <row r="11" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="64">
         <v>2</v>
       </c>
@@ -6334,7 +6337,7 @@
       <c r="Q11" s="65"/>
       <c r="R11" s="65"/>
     </row>
-    <row r="12" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="64">
         <v>3</v>
       </c>
@@ -6345,7 +6348,7 @@
       <c r="E12" s="65"/>
       <c r="F12" s="63"/>
     </row>
-    <row r="13" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="64">
         <v>4</v>
       </c>
@@ -6356,7 +6359,7 @@
       <c r="E13" s="65"/>
       <c r="F13" s="63"/>
     </row>
-    <row r="14" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="64">
         <v>5</v>
       </c>
@@ -6367,7 +6370,7 @@
       <c r="E14" s="65"/>
       <c r="F14" s="63"/>
     </row>
-    <row r="15" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="64">
         <v>6</v>
       </c>
@@ -6378,7 +6381,7 @@
       <c r="E15" s="65"/>
       <c r="F15" s="63"/>
     </row>
-    <row r="16" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="64">
         <v>7</v>
       </c>
@@ -6389,7 +6392,7 @@
       <c r="E16" s="65"/>
       <c r="F16" s="63"/>
     </row>
-    <row r="17" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="64">
         <v>8</v>
       </c>
@@ -6400,7 +6403,7 @@
       <c r="E17" s="65"/>
       <c r="F17" s="63"/>
     </row>
-    <row r="18" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="64">
         <v>9</v>
       </c>
@@ -6411,7 +6414,7 @@
       <c r="E18" s="65"/>
       <c r="F18" s="63"/>
     </row>
-    <row r="19" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="64">
         <v>10</v>
       </c>
@@ -6422,7 +6425,7 @@
       <c r="E19" s="65"/>
       <c r="F19" s="63"/>
     </row>
-    <row r="20" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="64">
         <v>11</v>
       </c>
@@ -6434,7 +6437,7 @@
       <c r="F20" s="63"/>
       <c r="L20" s="65"/>
     </row>
-    <row r="21" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="64">
         <v>12</v>
       </c>
@@ -6445,21 +6448,21 @@
       <c r="E21" s="65"/>
       <c r="F21" s="63"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="63"/>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
       <c r="F22" s="63"/>
     </row>
-    <row r="23" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="64"/>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
       <c r="E23" s="68"/>
       <c r="F23" s="67"/>
     </row>
-    <row r="24" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
         <v>3</v>
       </c>
@@ -6468,18 +6471,18 @@
       <c r="E24" s="69"/>
       <c r="F24" s="70"/>
     </row>
-    <row r="25" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="129"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="62"/>
       <c r="F25" s="63"/>
     </row>
-    <row r="26" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="64">
         <v>1</v>
       </c>
@@ -6490,7 +6493,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="63"/>
     </row>
-    <row r="27" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="64">
         <v>2</v>
       </c>
@@ -6501,7 +6504,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="63"/>
     </row>
-    <row r="28" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="64">
         <v>3</v>
       </c>
@@ -6512,7 +6515,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="63"/>
     </row>
-    <row r="29" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="64">
         <v>4</v>
       </c>
@@ -6523,7 +6526,7 @@
       <c r="E29" s="68"/>
       <c r="F29" s="63"/>
     </row>
-    <row r="30" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="64">
         <v>5</v>
       </c>
@@ -6534,7 +6537,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="63"/>
     </row>
-    <row r="31" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="64">
         <v>6</v>
       </c>
@@ -6545,7 +6548,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="63"/>
     </row>
-    <row r="32" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="64">
         <v>7</v>
       </c>
@@ -6556,7 +6559,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="63"/>
     </row>
-    <row r="33" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="64">
         <v>8</v>
       </c>
@@ -6567,7 +6570,7 @@
       <c r="E33" s="68"/>
       <c r="F33" s="63"/>
     </row>
-    <row r="34" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="64">
         <v>9</v>
       </c>
@@ -6578,7 +6581,7 @@
       <c r="E34" s="68"/>
       <c r="F34" s="63"/>
     </row>
-    <row r="35" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="64">
         <v>10</v>
       </c>
@@ -6589,7 +6592,7 @@
       <c r="E35" s="68"/>
       <c r="F35" s="63"/>
     </row>
-    <row r="36" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="64">
         <v>11</v>
       </c>
@@ -6600,7 +6603,7 @@
       <c r="E36" s="68"/>
       <c r="F36" s="63"/>
     </row>
-    <row r="37" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="64">
         <v>12</v>
       </c>
@@ -6611,70 +6614,70 @@
       <c r="E37" s="68"/>
       <c r="F37" s="63"/>
     </row>
-    <row r="38" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="64"/>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
       <c r="E38" s="68"/>
       <c r="F38" s="63"/>
     </row>
-    <row r="39" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="64"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
       <c r="E39" s="68"/>
       <c r="F39" s="63"/>
     </row>
-    <row r="40" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="64"/>
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
       <c r="E40" s="68"/>
       <c r="F40" s="63"/>
     </row>
-    <row r="41" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="64"/>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
       <c r="E41" s="68"/>
       <c r="F41" s="63"/>
     </row>
-    <row r="42" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="64"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
       <c r="E42" s="68"/>
       <c r="F42" s="63"/>
     </row>
-    <row r="43" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="64"/>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
       <c r="E43" s="68"/>
       <c r="F43" s="63"/>
     </row>
-    <row r="44" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="64"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
       <c r="E44" s="68"/>
       <c r="F44" s="63"/>
     </row>
-    <row r="45" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="64"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
       <c r="E45" s="68"/>
       <c r="F45" s="63"/>
     </row>
-    <row r="46" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="63"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
     </row>
-    <row r="47" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="58" t="s">
         <v>17</v>
       </c>
@@ -6683,7 +6686,7 @@
       <c r="E47" s="59"/>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="61" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="64">
         <v>1</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="64">
         <v>2</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="64">
         <v>3</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="64">
         <v>4</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="64">
         <v>5</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="64">
         <v>6</v>
       </c>
@@ -6802,7 +6805,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="64">
         <v>7</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="64">
         <v>8</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="64">
         <v>9</v>
       </c>
@@ -6853,7 +6856,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="64">
         <v>10</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="64">
         <v>11</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="64">
         <v>12</v>
       </c>
@@ -6904,14 +6907,14 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
       <c r="D61" s="66"/>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
     </row>
-    <row r="62" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="58" t="s">
         <v>18</v>
       </c>
@@ -6920,7 +6923,7 @@
       <c r="E62" s="59"/>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="61" t="s">
         <v>16</v>
       </c>
@@ -6937,7 +6940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="64">
         <v>1</v>
       </c>
@@ -6954,7 +6957,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="64">
         <v>2</v>
       </c>
@@ -6971,7 +6974,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="64">
         <v>3</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="64">
         <v>4</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="64">
         <v>5</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="64">
         <v>6</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="64">
         <v>7</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="64">
         <v>8</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="64">
         <v>9</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="64">
         <v>10</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="64">
         <v>11</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="64">
         <v>12</v>
       </c>
@@ -7141,14 +7144,14 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="63"/>
       <c r="C76" s="63"/>
       <c r="D76" s="66"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
     </row>
-    <row r="77" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
         <v>4</v>
       </c>
@@ -7157,7 +7160,7 @@
       <c r="E77" s="59"/>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="61" t="s">
         <v>16</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="64">
         <v>1</v>
       </c>
@@ -7191,7 +7194,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="64">
         <v>2</v>
       </c>
@@ -7208,7 +7211,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="64">
         <v>3</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="64">
         <v>4</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="64">
         <v>5</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="64">
         <v>6</v>
       </c>
@@ -7276,7 +7279,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="64">
         <v>7</v>
       </c>
@@ -7293,7 +7296,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="64">
         <v>8</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="64">
         <v>9</v>
       </c>
@@ -7327,7 +7330,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="64">
         <v>10</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="64">
         <v>11</v>
       </c>
@@ -7361,7 +7364,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="64">
         <v>12</v>
       </c>
@@ -7378,21 +7381,21 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="63"/>
       <c r="C91" s="63"/>
       <c r="D91" s="66"/>
       <c r="E91" s="66"/>
       <c r="F91" s="66"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="63"/>
       <c r="C92" s="63"/>
       <c r="D92" s="66"/>
       <c r="E92" s="66"/>
       <c r="F92" s="66"/>
     </row>
-    <row r="93" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="75" t="s">
         <v>19</v>
       </c>
@@ -7401,7 +7404,7 @@
       <c r="E93" s="59"/>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="61" t="s">
         <v>16</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="64">
         <v>1</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="64">
         <v>2</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="64">
         <v>3</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="64">
         <v>4</v>
       </c>
@@ -7486,7 +7489,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="64">
         <v>5</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="64">
         <v>6</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="64">
         <v>7</v>
       </c>
@@ -7537,7 +7540,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="64">
         <v>8</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="64">
         <v>9</v>
       </c>
@@ -7571,7 +7574,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="64">
         <v>10</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="64">
         <v>11</v>
       </c>
@@ -7605,7 +7608,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="64">
         <v>12</v>
       </c>
@@ -7622,22 +7625,22 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D107" s="56"/>
       <c r="E107" s="56"/>
       <c r="F107" s="56"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D108" s="56"/>
       <c r="E108" s="56"/>
       <c r="F108" s="56"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D109" s="56"/>
       <c r="E109" s="56"/>
       <c r="F109" s="56"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>120</v>
       </c>
@@ -7645,7 +7648,7 @@
       <c r="E110" s="56"/>
       <c r="F110" s="56"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>121</v>
       </c>
@@ -7655,12 +7658,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -7673,15 +7679,12 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7692,166 +7695,166 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
-    <col min="257" max="257" width="4.265625" customWidth="1"/>
-    <col min="258" max="258" width="10.1328125" customWidth="1"/>
-    <col min="513" max="513" width="4.265625" customWidth="1"/>
-    <col min="514" max="514" width="10.1328125" customWidth="1"/>
-    <col min="769" max="769" width="4.265625" customWidth="1"/>
-    <col min="770" max="770" width="10.1328125" customWidth="1"/>
-    <col min="1025" max="1025" width="4.265625" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1328125" customWidth="1"/>
-    <col min="1281" max="1281" width="4.265625" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1328125" customWidth="1"/>
-    <col min="1537" max="1537" width="4.265625" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1328125" customWidth="1"/>
-    <col min="1793" max="1793" width="4.265625" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1328125" customWidth="1"/>
-    <col min="2049" max="2049" width="4.265625" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1328125" customWidth="1"/>
-    <col min="2305" max="2305" width="4.265625" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1328125" customWidth="1"/>
-    <col min="2561" max="2561" width="4.265625" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1328125" customWidth="1"/>
-    <col min="2817" max="2817" width="4.265625" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1328125" customWidth="1"/>
-    <col min="3073" max="3073" width="4.265625" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1328125" customWidth="1"/>
-    <col min="3329" max="3329" width="4.265625" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1328125" customWidth="1"/>
-    <col min="3585" max="3585" width="4.265625" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1328125" customWidth="1"/>
-    <col min="3841" max="3841" width="4.265625" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1328125" customWidth="1"/>
-    <col min="4097" max="4097" width="4.265625" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1328125" customWidth="1"/>
-    <col min="4353" max="4353" width="4.265625" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1328125" customWidth="1"/>
-    <col min="4609" max="4609" width="4.265625" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1328125" customWidth="1"/>
-    <col min="4865" max="4865" width="4.265625" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1328125" customWidth="1"/>
-    <col min="5121" max="5121" width="4.265625" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1328125" customWidth="1"/>
-    <col min="5377" max="5377" width="4.265625" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1328125" customWidth="1"/>
-    <col min="5633" max="5633" width="4.265625" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1328125" customWidth="1"/>
-    <col min="5889" max="5889" width="4.265625" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1328125" customWidth="1"/>
-    <col min="6145" max="6145" width="4.265625" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1328125" customWidth="1"/>
-    <col min="6401" max="6401" width="4.265625" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1328125" customWidth="1"/>
-    <col min="6657" max="6657" width="4.265625" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1328125" customWidth="1"/>
-    <col min="6913" max="6913" width="4.265625" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1328125" customWidth="1"/>
-    <col min="7169" max="7169" width="4.265625" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1328125" customWidth="1"/>
-    <col min="7425" max="7425" width="4.265625" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1328125" customWidth="1"/>
-    <col min="7681" max="7681" width="4.265625" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1328125" customWidth="1"/>
-    <col min="7937" max="7937" width="4.265625" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1328125" customWidth="1"/>
-    <col min="8193" max="8193" width="4.265625" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1328125" customWidth="1"/>
-    <col min="8449" max="8449" width="4.265625" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1328125" customWidth="1"/>
-    <col min="8705" max="8705" width="4.265625" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1328125" customWidth="1"/>
-    <col min="8961" max="8961" width="4.265625" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1328125" customWidth="1"/>
-    <col min="9217" max="9217" width="4.265625" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1328125" customWidth="1"/>
-    <col min="9473" max="9473" width="4.265625" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1328125" customWidth="1"/>
-    <col min="9729" max="9729" width="4.265625" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1328125" customWidth="1"/>
-    <col min="9985" max="9985" width="4.265625" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1328125" customWidth="1"/>
-    <col min="10241" max="10241" width="4.265625" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1328125" customWidth="1"/>
-    <col min="10497" max="10497" width="4.265625" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1328125" customWidth="1"/>
-    <col min="10753" max="10753" width="4.265625" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1328125" customWidth="1"/>
-    <col min="11009" max="11009" width="4.265625" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1328125" customWidth="1"/>
-    <col min="11265" max="11265" width="4.265625" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1328125" customWidth="1"/>
-    <col min="11521" max="11521" width="4.265625" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1328125" customWidth="1"/>
-    <col min="11777" max="11777" width="4.265625" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1328125" customWidth="1"/>
-    <col min="12033" max="12033" width="4.265625" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1328125" customWidth="1"/>
-    <col min="12289" max="12289" width="4.265625" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1328125" customWidth="1"/>
-    <col min="12545" max="12545" width="4.265625" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1328125" customWidth="1"/>
-    <col min="12801" max="12801" width="4.265625" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1328125" customWidth="1"/>
-    <col min="13057" max="13057" width="4.265625" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1328125" customWidth="1"/>
-    <col min="13313" max="13313" width="4.265625" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1328125" customWidth="1"/>
-    <col min="13569" max="13569" width="4.265625" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1328125" customWidth="1"/>
-    <col min="13825" max="13825" width="4.265625" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1328125" customWidth="1"/>
-    <col min="14081" max="14081" width="4.265625" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1328125" customWidth="1"/>
-    <col min="14337" max="14337" width="4.265625" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1328125" customWidth="1"/>
-    <col min="14593" max="14593" width="4.265625" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1328125" customWidth="1"/>
-    <col min="14849" max="14849" width="4.265625" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1328125" customWidth="1"/>
-    <col min="15105" max="15105" width="4.265625" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1328125" customWidth="1"/>
-    <col min="15361" max="15361" width="4.265625" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1328125" customWidth="1"/>
-    <col min="15617" max="15617" width="4.265625" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1328125" customWidth="1"/>
-    <col min="15873" max="15873" width="4.265625" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1328125" customWidth="1"/>
-    <col min="16129" max="16129" width="4.265625" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="257" max="257" width="4.28515625" customWidth="1"/>
+    <col min="258" max="258" width="10.140625" customWidth="1"/>
+    <col min="513" max="513" width="4.28515625" customWidth="1"/>
+    <col min="514" max="514" width="10.140625" customWidth="1"/>
+    <col min="769" max="769" width="4.28515625" customWidth="1"/>
+    <col min="770" max="770" width="10.140625" customWidth="1"/>
+    <col min="1025" max="1025" width="4.28515625" customWidth="1"/>
+    <col min="1026" max="1026" width="10.140625" customWidth="1"/>
+    <col min="1281" max="1281" width="4.28515625" customWidth="1"/>
+    <col min="1282" max="1282" width="10.140625" customWidth="1"/>
+    <col min="1537" max="1537" width="4.28515625" customWidth="1"/>
+    <col min="1538" max="1538" width="10.140625" customWidth="1"/>
+    <col min="1793" max="1793" width="4.28515625" customWidth="1"/>
+    <col min="1794" max="1794" width="10.140625" customWidth="1"/>
+    <col min="2049" max="2049" width="4.28515625" customWidth="1"/>
+    <col min="2050" max="2050" width="10.140625" customWidth="1"/>
+    <col min="2305" max="2305" width="4.28515625" customWidth="1"/>
+    <col min="2306" max="2306" width="10.140625" customWidth="1"/>
+    <col min="2561" max="2561" width="4.28515625" customWidth="1"/>
+    <col min="2562" max="2562" width="10.140625" customWidth="1"/>
+    <col min="2817" max="2817" width="4.28515625" customWidth="1"/>
+    <col min="2818" max="2818" width="10.140625" customWidth="1"/>
+    <col min="3073" max="3073" width="4.28515625" customWidth="1"/>
+    <col min="3074" max="3074" width="10.140625" customWidth="1"/>
+    <col min="3329" max="3329" width="4.28515625" customWidth="1"/>
+    <col min="3330" max="3330" width="10.140625" customWidth="1"/>
+    <col min="3585" max="3585" width="4.28515625" customWidth="1"/>
+    <col min="3586" max="3586" width="10.140625" customWidth="1"/>
+    <col min="3841" max="3841" width="4.28515625" customWidth="1"/>
+    <col min="3842" max="3842" width="10.140625" customWidth="1"/>
+    <col min="4097" max="4097" width="4.28515625" customWidth="1"/>
+    <col min="4098" max="4098" width="10.140625" customWidth="1"/>
+    <col min="4353" max="4353" width="4.28515625" customWidth="1"/>
+    <col min="4354" max="4354" width="10.140625" customWidth="1"/>
+    <col min="4609" max="4609" width="4.28515625" customWidth="1"/>
+    <col min="4610" max="4610" width="10.140625" customWidth="1"/>
+    <col min="4865" max="4865" width="4.28515625" customWidth="1"/>
+    <col min="4866" max="4866" width="10.140625" customWidth="1"/>
+    <col min="5121" max="5121" width="4.28515625" customWidth="1"/>
+    <col min="5122" max="5122" width="10.140625" customWidth="1"/>
+    <col min="5377" max="5377" width="4.28515625" customWidth="1"/>
+    <col min="5378" max="5378" width="10.140625" customWidth="1"/>
+    <col min="5633" max="5633" width="4.28515625" customWidth="1"/>
+    <col min="5634" max="5634" width="10.140625" customWidth="1"/>
+    <col min="5889" max="5889" width="4.28515625" customWidth="1"/>
+    <col min="5890" max="5890" width="10.140625" customWidth="1"/>
+    <col min="6145" max="6145" width="4.28515625" customWidth="1"/>
+    <col min="6146" max="6146" width="10.140625" customWidth="1"/>
+    <col min="6401" max="6401" width="4.28515625" customWidth="1"/>
+    <col min="6402" max="6402" width="10.140625" customWidth="1"/>
+    <col min="6657" max="6657" width="4.28515625" customWidth="1"/>
+    <col min="6658" max="6658" width="10.140625" customWidth="1"/>
+    <col min="6913" max="6913" width="4.28515625" customWidth="1"/>
+    <col min="6914" max="6914" width="10.140625" customWidth="1"/>
+    <col min="7169" max="7169" width="4.28515625" customWidth="1"/>
+    <col min="7170" max="7170" width="10.140625" customWidth="1"/>
+    <col min="7425" max="7425" width="4.28515625" customWidth="1"/>
+    <col min="7426" max="7426" width="10.140625" customWidth="1"/>
+    <col min="7681" max="7681" width="4.28515625" customWidth="1"/>
+    <col min="7682" max="7682" width="10.140625" customWidth="1"/>
+    <col min="7937" max="7937" width="4.28515625" customWidth="1"/>
+    <col min="7938" max="7938" width="10.140625" customWidth="1"/>
+    <col min="8193" max="8193" width="4.28515625" customWidth="1"/>
+    <col min="8194" max="8194" width="10.140625" customWidth="1"/>
+    <col min="8449" max="8449" width="4.28515625" customWidth="1"/>
+    <col min="8450" max="8450" width="10.140625" customWidth="1"/>
+    <col min="8705" max="8705" width="4.28515625" customWidth="1"/>
+    <col min="8706" max="8706" width="10.140625" customWidth="1"/>
+    <col min="8961" max="8961" width="4.28515625" customWidth="1"/>
+    <col min="8962" max="8962" width="10.140625" customWidth="1"/>
+    <col min="9217" max="9217" width="4.28515625" customWidth="1"/>
+    <col min="9218" max="9218" width="10.140625" customWidth="1"/>
+    <col min="9473" max="9473" width="4.28515625" customWidth="1"/>
+    <col min="9474" max="9474" width="10.140625" customWidth="1"/>
+    <col min="9729" max="9729" width="4.28515625" customWidth="1"/>
+    <col min="9730" max="9730" width="10.140625" customWidth="1"/>
+    <col min="9985" max="9985" width="4.28515625" customWidth="1"/>
+    <col min="9986" max="9986" width="10.140625" customWidth="1"/>
+    <col min="10241" max="10241" width="4.28515625" customWidth="1"/>
+    <col min="10242" max="10242" width="10.140625" customWidth="1"/>
+    <col min="10497" max="10497" width="4.28515625" customWidth="1"/>
+    <col min="10498" max="10498" width="10.140625" customWidth="1"/>
+    <col min="10753" max="10753" width="4.28515625" customWidth="1"/>
+    <col min="10754" max="10754" width="10.140625" customWidth="1"/>
+    <col min="11009" max="11009" width="4.28515625" customWidth="1"/>
+    <col min="11010" max="11010" width="10.140625" customWidth="1"/>
+    <col min="11265" max="11265" width="4.28515625" customWidth="1"/>
+    <col min="11266" max="11266" width="10.140625" customWidth="1"/>
+    <col min="11521" max="11521" width="4.28515625" customWidth="1"/>
+    <col min="11522" max="11522" width="10.140625" customWidth="1"/>
+    <col min="11777" max="11777" width="4.28515625" customWidth="1"/>
+    <col min="11778" max="11778" width="10.140625" customWidth="1"/>
+    <col min="12033" max="12033" width="4.28515625" customWidth="1"/>
+    <col min="12034" max="12034" width="10.140625" customWidth="1"/>
+    <col min="12289" max="12289" width="4.28515625" customWidth="1"/>
+    <col min="12290" max="12290" width="10.140625" customWidth="1"/>
+    <col min="12545" max="12545" width="4.28515625" customWidth="1"/>
+    <col min="12546" max="12546" width="10.140625" customWidth="1"/>
+    <col min="12801" max="12801" width="4.28515625" customWidth="1"/>
+    <col min="12802" max="12802" width="10.140625" customWidth="1"/>
+    <col min="13057" max="13057" width="4.28515625" customWidth="1"/>
+    <col min="13058" max="13058" width="10.140625" customWidth="1"/>
+    <col min="13313" max="13313" width="4.28515625" customWidth="1"/>
+    <col min="13314" max="13314" width="10.140625" customWidth="1"/>
+    <col min="13569" max="13569" width="4.28515625" customWidth="1"/>
+    <col min="13570" max="13570" width="10.140625" customWidth="1"/>
+    <col min="13825" max="13825" width="4.28515625" customWidth="1"/>
+    <col min="13826" max="13826" width="10.140625" customWidth="1"/>
+    <col min="14081" max="14081" width="4.28515625" customWidth="1"/>
+    <col min="14082" max="14082" width="10.140625" customWidth="1"/>
+    <col min="14337" max="14337" width="4.28515625" customWidth="1"/>
+    <col min="14338" max="14338" width="10.140625" customWidth="1"/>
+    <col min="14593" max="14593" width="4.28515625" customWidth="1"/>
+    <col min="14594" max="14594" width="10.140625" customWidth="1"/>
+    <col min="14849" max="14849" width="4.28515625" customWidth="1"/>
+    <col min="14850" max="14850" width="10.140625" customWidth="1"/>
+    <col min="15105" max="15105" width="4.28515625" customWidth="1"/>
+    <col min="15106" max="15106" width="10.140625" customWidth="1"/>
+    <col min="15361" max="15361" width="4.28515625" customWidth="1"/>
+    <col min="15362" max="15362" width="10.140625" customWidth="1"/>
+    <col min="15617" max="15617" width="4.28515625" customWidth="1"/>
+    <col min="15618" max="15618" width="10.140625" customWidth="1"/>
+    <col min="15873" max="15873" width="4.28515625" customWidth="1"/>
+    <col min="15874" max="15874" width="10.140625" customWidth="1"/>
+    <col min="16129" max="16129" width="4.28515625" customWidth="1"/>
+    <col min="16130" max="16130" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="76" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="J2" s="77" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
       <c r="J3" s="78" t="s">
         <v>130</v>
       </c>
@@ -7862,17 +7865,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
       <c r="I4" s="8"/>
       <c r="J4" s="79">
         <f>SUMPRODUCT(C7:C16,D7:D16)/SUM(D7:D16)</f>
@@ -7887,29 +7890,29 @@
         <v>0.1917136686385521</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="136"/>
+      <c r="H5" s="138"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="81" t="s">
         <v>20</v>
@@ -7933,17 +7936,17 @@
         <v>136</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>138</v>
@@ -7975,7 +7978,7 @@
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>139</v>
@@ -8007,7 +8010,7 @@
       <c r="O8" s="85"/>
       <c r="P8" s="85"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>140</v>
       </c>
@@ -8036,7 +8039,7 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>141</v>
       </c>
@@ -8065,7 +8068,7 @@
       <c r="M10" s="85"/>
       <c r="N10" s="85"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>142</v>
       </c>
@@ -8094,7 +8097,7 @@
       <c r="M11" s="85"/>
       <c r="N11" s="85"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -8119,7 +8122,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="86" t="s">
         <v>22</v>
       </c>
@@ -8144,7 +8147,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="86" t="s">
         <v>23</v>
       </c>
@@ -8169,7 +8172,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="86" t="s">
         <v>143</v>
       </c>
@@ -8194,7 +8197,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="86" t="s">
         <v>144</v>
       </c>
@@ -8217,7 +8220,7 @@
         <v>8023.9349999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
         <v>145</v>
       </c>
@@ -8231,7 +8234,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F21" s="87" t="s">
         <v>146</v>
       </c>
@@ -8239,12 +8242,12 @@
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B22" s="137" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
       <c r="F22" s="89" t="s">
         <v>148</v>
       </c>
@@ -8252,12 +8255,12 @@
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B23" s="137" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
       <c r="F23" s="90">
         <f>SUMPRODUCT(C25:C27,D25:D27)/SUM(D25:D27)</f>
         <v>6.8617832470217896E-2</v>
@@ -8266,7 +8269,7 @@
       <c r="H23" s="88"/>
       <c r="I23" s="88"/>
     </row>
-    <row r="24" spans="2:11" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="91" t="s">
         <v>20</v>
       </c>
@@ -8281,7 +8284,7 @@
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="86" t="s">
         <v>149</v>
       </c>
@@ -8297,7 +8300,7 @@
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="86" t="s">
         <v>150</v>
       </c>
@@ -8312,7 +8315,7 @@
       <c r="H26" s="88"/>
       <c r="I26" s="88"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="86" t="s">
         <v>151</v>
       </c>
@@ -8322,38 +8325,38 @@
       <c r="D27" s="96">
         <v>928.7</v>
       </c>
-      <c r="F27" s="130" t="s">
+      <c r="F27" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="97"/>
       <c r="C28" s="97"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="76" t="s">
         <v>153</v>
       </c>
@@ -8362,34 +8365,34 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B34" s="140" t="s">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="142"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="98"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B35" s="143" t="s">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="145"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="99"/>
       <c r="F35" s="78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="80" t="s">
         <v>20</v>
       </c>
@@ -8405,7 +8408,7 @@
         <v>0.76320678028475641</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="101">
         <v>2019</v>
       </c>
@@ -8418,7 +8421,7 @@
       <c r="E37" s="104"/>
       <c r="F37" s="88"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="101">
         <v>2018</v>
       </c>
@@ -8431,7 +8434,7 @@
       <c r="E38" s="104"/>
       <c r="F38" s="88"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="101">
         <v>2017</v>
       </c>
@@ -8444,26 +8447,26 @@
       <c r="E39" s="104"/>
       <c r="F39" s="88"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="76" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J43" s="77" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B44" s="131" t="s">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="133"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="135"/>
       <c r="J44" s="78" t="s">
         <v>160</v>
       </c>
@@ -8474,16 +8477,16 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="131" t="s">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="133"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="135"/>
       <c r="I45" s="8"/>
       <c r="J45" s="79">
         <f>SUMPRODUCT(C48:C57,D48:D57)/SUM(D48:D57)</f>
@@ -8498,28 +8501,28 @@
         <v>0.15765869631908236</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134" t="s">
+      <c r="D46" s="136"/>
+      <c r="E46" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="134"/>
-      <c r="G46" s="135" t="s">
+      <c r="F46" s="136"/>
+      <c r="G46" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="136"/>
+      <c r="H46" s="138"/>
       <c r="I46" s="8"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="2:16" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B47" s="81" t="s">
         <v>20</v>
       </c>
@@ -8542,17 +8545,17 @@
         <v>136</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="130" t="s">
+      <c r="J47" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="130"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="139"/>
+      <c r="P47" s="139"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>2019</v>
       </c>
@@ -8583,7 +8586,7 @@
       <c r="O48" s="85"/>
       <c r="P48" s="85"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>2018</v>
       </c>
@@ -8612,7 +8615,7 @@
       <c r="M49" s="85"/>
       <c r="N49" s="85"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>2017</v>
       </c>
@@ -8641,7 +8644,7 @@
       <c r="M50" s="85"/>
       <c r="N50" s="85"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>2016</v>
       </c>
@@ -8670,7 +8673,7 @@
       <c r="M51" s="85"/>
       <c r="N51" s="85"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>2015</v>
       </c>
@@ -8695,7 +8698,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="86">
         <v>2014</v>
       </c>
@@ -8720,7 +8723,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="86">
         <v>2013</v>
       </c>
@@ -8745,7 +8748,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="86">
         <v>2012</v>
       </c>
@@ -8770,7 +8773,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="86">
         <v>2011</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>7746.4999999999991</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="86">
         <v>2010</v>
       </c>
@@ -8818,23 +8821,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F27:K29"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F27:K29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8842,14 +8845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -8867,7 +8870,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -8885,7 +8888,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -8901,7 +8904,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>107</v>
       </c>
@@ -8919,7 +8922,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -8937,7 +8940,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -8955,7 +8958,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -8971,7 +8974,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>81</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -9059,7 +9062,7 @@
         <v>94331</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -9101,7 +9104,7 @@
         <v>93132</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -9143,7 +9146,7 @@
         <v>101822</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -9185,7 +9188,7 @@
         <v>96875</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -9227,7 +9230,7 @@
         <v>97324</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -9269,7 +9272,7 @@
         <v>95286</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -9311,7 +9314,7 @@
         <v>95951</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -9353,7 +9356,7 @@
         <v>99793</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -9395,7 +9398,7 @@
         <v>101541</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -9437,7 +9440,7 @@
         <v>107493</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -9479,7 +9482,7 @@
         <v>108617</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -9521,7 +9524,7 @@
         <v>109607</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -9563,7 +9566,7 @@
         <v>113605</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -9605,7 +9608,7 @@
         <v>109564.88503064183</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -9647,7 +9650,7 @@
         <v>101667.66816909495</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -9689,7 +9692,7 @@
         <v>109297</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -9731,7 +9734,7 @@
         <v>101705.77012559999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -9773,7 +9776,7 @@
         <v>110764.95492887127</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -9815,7 +9818,7 @@
         <v>104204.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -9857,7 +9860,7 @@
         <v>101457</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -9899,7 +9902,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -9943,7 +9946,7 @@
         <v>110022</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -9994,14 +9997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -10019,7 +10022,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -10037,7 +10040,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -10053,7 +10056,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>106</v>
       </c>
@@ -10071,7 +10074,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -10089,7 +10092,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -10107,7 +10110,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -10123,7 +10126,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>79</v>
       </c>
@@ -10167,7 +10170,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -10211,7 +10214,7 @@
         <v>39214</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -10253,7 +10256,7 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -10295,7 +10298,7 @@
         <v>40566</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -10337,7 +10340,7 @@
         <v>36685</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -10379,7 +10382,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -10421,7 +10424,7 @@
         <v>36557</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -10463,7 +10466,7 @@
         <v>40650</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -10505,7 +10508,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -10547,7 +10550,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -10589,7 +10592,7 @@
         <v>47948</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -10631,7 +10634,7 @@
         <v>46896</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -10673,7 +10676,7 @@
         <v>44443</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -10715,7 +10718,7 @@
         <v>47805.654799999997</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -10757,7 +10760,7 @@
         <v>46911.623420000004</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -10799,7 +10802,7 @@
         <v>44715.734390000012</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -10841,7 +10844,7 @@
         <v>51642</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -10883,7 +10886,7 @@
         <v>45544.785926000004</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -10925,7 +10928,7 @@
         <v>53642.439892999988</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -10967,7 +10970,7 @@
         <v>48361.714998000003</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -11009,7 +11012,7 @@
         <v>44934.24882299998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -11051,7 +11054,7 @@
         <v>57932.432542000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -11095,7 +11098,7 @@
         <v>52669.430516428569</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -11146,14 +11149,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -11171,7 +11174,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -11189,7 +11192,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -11205,7 +11208,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>103</v>
       </c>
@@ -11223,7 +11226,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -11241,7 +11244,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -11259,7 +11262,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -11275,7 +11278,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>29</v>
       </c>
@@ -11319,7 +11322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -11363,7 +11366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -11405,7 +11408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -11447,7 +11450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -11489,7 +11492,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -11531,7 +11534,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -11573,7 +11576,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -11615,7 +11618,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -11657,7 +11660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -11699,7 +11702,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -11741,7 +11744,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -11783,7 +11786,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -11825,7 +11828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -11867,7 +11870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -11909,7 +11912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -11951,7 +11954,7 @@
         <v>90848.02</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -11993,7 +11996,7 @@
         <v>79051.785450000025</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -12035,7 +12038,7 @@
         <v>69270</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -12077,7 +12080,7 @@
         <v>95803.3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -12119,7 +12122,7 @@
         <v>91339</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -12161,7 +12164,7 @@
         <v>85296</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -12203,7 +12206,7 @@
         <v>99054</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -12247,7 +12250,7 @@
         <v>97900.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -12288,7 +12291,7 @@
         <v>98608.8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
@@ -12302,7 +12305,7 @@
       <c r="M32" s="53"/>
       <c r="N32" s="53"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="53"/>
@@ -12316,7 +12319,7 @@
       <c r="M33" s="53"/>
       <c r="N33" s="53"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
@@ -12330,7 +12333,7 @@
       <c r="M34" s="53"/>
       <c r="N34" s="53"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
@@ -12354,14 +12357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -12379,7 +12382,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -12397,7 +12400,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12413,7 +12416,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>105</v>
       </c>
@@ -12431,7 +12434,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -12449,7 +12452,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -12467,7 +12470,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -12483,7 +12486,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>45</v>
       </c>
@@ -12527,7 +12530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -12571,7 +12574,7 @@
         <v>48274</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -12613,7 +12616,7 @@
         <v>25020</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -12655,7 +12658,7 @@
         <v>26725</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -12697,7 +12700,7 @@
         <v>25415</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -12739,7 +12742,7 @@
         <v>30137</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -12781,7 +12784,7 @@
         <v>25951</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -12823,7 +12826,7 @@
         <v>27710</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -12865,7 +12868,7 @@
         <v>27259</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -12907,7 +12910,7 @@
         <v>29782</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -12949,7 +12952,7 @@
         <v>31764</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -12991,7 +12994,7 @@
         <v>30331</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -13033,7 +13036,7 @@
         <v>29560</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -13075,7 +13078,7 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -13117,7 +13120,7 @@
         <v>32027.600315534684</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -13159,7 +13162,7 @@
         <v>37555.231023997796</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -13201,7 +13204,7 @@
         <v>39242.485585366201</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -13243,7 +13246,7 @@
         <v>33281.504999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -13285,7 +13288,7 @@
         <v>37044.879262497503</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -13327,7 +13330,7 @@
         <v>33526.535999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -13369,7 +13372,7 @@
         <v>30846.952388628401</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -13411,7 +13414,7 @@
         <v>41533.675000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -13455,7 +13458,7 @@
         <v>39984.583269292452</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -13506,14 +13509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -13531,7 +13534,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -13549,7 +13552,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -13565,7 +13568,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>104</v>
       </c>
@@ -13583,7 +13586,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -13601,7 +13604,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -13619,7 +13622,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -13635,7 +13638,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>48</v>
       </c>
@@ -13679,7 +13682,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -13723,7 +13726,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -13765,7 +13768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -13807,7 +13810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -13849,7 +13852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -13891,7 +13894,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -13933,7 +13936,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -13975,7 +13978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -14017,7 +14020,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -14059,7 +14062,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -14101,7 +14104,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -14143,7 +14146,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -14185,7 +14188,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -14227,7 +14230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -14269,7 +14272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -14311,7 +14314,7 @@
         <v>115535</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -14353,7 +14356,7 @@
         <v>122418</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -14395,7 +14398,7 @@
         <v>109947.899</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -14437,7 +14440,7 @@
         <v>124072</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -14479,7 +14482,7 @@
         <v>114047.334</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -14521,7 +14524,7 @@
         <v>104494</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -14563,7 +14566,7 @@
         <v>131021</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -14607,7 +14610,7 @@
         <v>125798</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -14658,14 +14661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -14683,7 +14686,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -14701,7 +14704,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -14717,7 +14720,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>98</v>
       </c>
@@ -14735,7 +14738,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -14753,7 +14756,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>63</v>
       </c>
@@ -14771,7 +14774,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -14787,7 +14790,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>69</v>
       </c>
@@ -14831,7 +14834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -14875,7 +14878,7 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="39">
         <v>1997</v>
@@ -14917,7 +14920,7 @@
         <v>41178</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="39">
         <v>1998</v>
@@ -14959,7 +14962,7 @@
         <v>41728</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="39">
         <v>1999</v>
@@ -15001,7 +15004,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="39">
         <v>2000</v>
@@ -15043,7 +15046,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="39">
         <v>2001</v>
@@ -15085,7 +15088,7 @@
         <v>42540</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="39">
         <v>2002</v>
@@ -15127,7 +15130,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="39">
         <v>2003</v>
@@ -15169,7 +15172,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="39">
         <v>2004</v>
@@ -15211,7 +15214,7 @@
         <v>67224</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="39">
         <v>2005</v>
@@ -15253,7 +15256,7 @@
         <v>46828</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="39">
         <v>2006</v>
@@ -15295,7 +15298,7 @@
         <v>44570</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="39">
         <v>2007</v>
@@ -15337,7 +15340,7 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="39">
         <v>2008</v>
@@ -15379,7 +15382,7 @@
         <v>45695</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="39">
         <v>2009</v>
@@ -15421,7 +15424,7 @@
         <v>44864.4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="39">
         <v>2010</v>
@@ -15463,7 +15466,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="39">
         <v>2011</v>
@@ -15505,7 +15508,7 @@
         <v>46788</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -15547,7 +15550,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -15589,7 +15592,7 @@
         <v>45908.1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -15631,7 +15634,7 @@
         <v>42907</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -15673,7 +15676,7 @@
         <v>39411</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -15715,7 +15718,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -15759,7 +15762,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
